--- a/results/Round1 model performance - Nisal.xlsx
+++ b/results/Round1 model performance - Nisal.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_F25DC773A252ABEACE02ECBFFBDF56345BDE58A2" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{D5BBBD58-E287-4D4F-99D6-F79733B83EBF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9215E1B-F07E-49C7-A8B0-B38F554E462E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="2690" windowWidth="14400" windowHeight="7510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Model</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>n_estimators=500, max_depth=6</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>n_estimators=500, max_depth=5, class_weight='balanced'</t>
+  </si>
+  <si>
+    <t>Val</t>
+  </si>
+  <si>
+    <t>OneHot</t>
   </si>
 </sst>
 </file>
@@ -402,22 +414,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="2"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="19.7265625" customWidth="1"/>
+    <col min="5" max="6" width="9.1796875" style="2"/>
+    <col min="7" max="7" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -436,8 +449,11 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -457,7 +473,7 @@
         <v>0.36149999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -477,7 +493,7 @@
         <v>0.64278599999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -495,9 +511,56 @@
       </c>
       <c r="F4" s="2">
         <v>0.42703999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.51205000000000001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.30459999999999998</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.25644099999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.52095999999999998</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.25669999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/Round1 model performance - Nisal.xlsx
+++ b/results/Round1 model performance - Nisal.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9215E1B-F07E-49C7-A8B0-B38F554E462E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19419EF-A470-47B2-A33C-192A164F4F86}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="2690" windowWidth="14400" windowHeight="7510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Model</t>
   </si>
@@ -75,6 +75,27 @@
   </si>
   <si>
     <t>OneHot</t>
+  </si>
+  <si>
+    <t>CV 5 fold Train/Val</t>
+  </si>
+  <si>
+    <t>LGBM</t>
+  </si>
+  <si>
+    <t>max_depth=10, class_weight='balanced'</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>preprocessed_train_val_Mar13_0130pm_label_enc</t>
+  </si>
+  <si>
+    <t>CatBoostClassifier</t>
+  </si>
+  <si>
+    <t>max_depth=10, auto_class_weights='Balanced', n_estimators=10</t>
   </si>
 </sst>
 </file>
@@ -414,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -425,12 +446,14 @@
     <col min="1" max="1" width="16.54296875" customWidth="1"/>
     <col min="2" max="2" width="20.81640625" customWidth="1"/>
     <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" customWidth="1"/>
-    <col min="5" max="6" width="9.1796875" style="2"/>
-    <col min="7" max="7" width="8.7265625" style="2"/>
+    <col min="4" max="4" width="49.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.1796875" style="2"/>
+    <col min="8" max="8" width="8.7265625" style="2"/>
+    <col min="9" max="9" width="17.90625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -443,17 +466,23 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -466,14 +495,15 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1"/>
+      <c r="F2" s="2">
         <v>0.3715</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>0.36149999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -486,14 +516,15 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1"/>
+      <c r="F3" s="2">
         <v>0.37386999999999998</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>0.64278599999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -506,14 +537,15 @@
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1"/>
+      <c r="F4" s="2">
         <v>0.35886000000000001</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>0.42703999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -526,17 +558,18 @@
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1"/>
+      <c r="F5" s="2">
         <v>0.51205000000000001</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>0.30459999999999998</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>0.25644099999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -549,14 +582,43 @@
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1"/>
+      <c r="F6" s="2">
         <v>0.52095999999999998</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>0.30480000000000002</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>0.25669999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.38839000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.35049999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/results/Round1 model performance - Nisal.xlsx
+++ b/results/Round1 model performance - Nisal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19419EF-A470-47B2-A33C-192A164F4F86}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9B6386-6A4D-4553-9C01-82BBD0282293}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Model</t>
   </si>
@@ -96,6 +96,43 @@
   </si>
   <si>
     <t>max_depth=10, auto_class_weights='Balanced', n_estimators=10</t>
+  </si>
+  <si>
+    <t>class_weight': 'balanced',
+ 'learning_rate': 0.1,
+ 'max_depth': 8,
+ 'min_child_samples': 100,
+ 'n_estimators': 400,
+ 'num_leaves': 16</t>
+  </si>
+  <si>
+    <t>RandomForest</t>
+  </si>
+  <si>
+    <t>max_depth=10,class_weight='balanced',n_estimators=200</t>
+  </si>
+  <si>
+    <t>n_estimators=200, max_depth=10</t>
+  </si>
+  <si>
+    <t>ExtraTrees</t>
+  </si>
+  <si>
+    <t>class_weight': 'balanced',
+ 'learning_rate': 0.1,
+ 'max_depth': 10,
+ 'min_child_samples': 100,
+ 'n_estimators': 800,
+ 'num_leaves': 16</t>
+  </si>
+  <si>
+    <t>AdaBoostClassifier</t>
+  </si>
+  <si>
+    <t>base_estimator__max_depth': 5, 'learning_rate': 0.1, 'n_estimators': 200</t>
+  </si>
+  <si>
+    <t>XGBClassifier</t>
   </si>
 </sst>
 </file>
@@ -147,13 +184,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,16 +475,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="46.1796875" customWidth="1"/>
     <col min="3" max="3" width="21.453125" customWidth="1"/>
     <col min="4" max="4" width="49.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.7265625" bestFit="1" customWidth="1"/>
@@ -621,6 +661,75 @@
         <v>0.35049999999999998</v>
       </c>
     </row>
+    <row r="9" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.38701000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.38350000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.38618000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.39512999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.38489000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/results/Round1 model performance - Nisal.xlsx
+++ b/results/Round1 model performance - Nisal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9B6386-6A4D-4553-9C01-82BBD0282293}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C17477-78A8-4A85-95B1-6828B90C5F2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>Model</t>
   </si>
@@ -133,6 +133,52 @@
   </si>
   <si>
     <t>XGBClassifier</t>
+  </si>
+  <si>
+    <t>learning_rate': 0.2, 'max_delta_step': 0, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 800</t>
+  </si>
+  <si>
+    <t>bootstrap': False,
+ 'criterion': 'gini',
+ 'max_depth': None,
+ 'max_features': 10,
+ 'min_samples_leaf': 10,
+ 'min_samples_split': 2,
+ 'n_estimators': 300</t>
+  </si>
+  <si>
+    <t>{'class_weight': 'balanced',
+ 'learning_rate': 0.01,
+ 'max_depth': 10,
+ 'min_child_samples': 200,
+ 'n_estimators': 800,
+ 'num_leaves': 24}</t>
+  </si>
+  <si>
+    <t>{'class_weight': 'balanced',
+ 'learning_rate': 0.01,
+ 'max_depth': 8,
+ 'min_child_samples': 400,
+ 'n_estimators': 900,
+ 'num_leaves': 24}</t>
+  </si>
+  <si>
+    <t>bootstrap': False,
+ 'criterion': 'gini',
+ 'max_depth': 10,
+ 'max_features': 1,
+ 'min_samples_leaf': 1,
+ 'min_samples_split': 3,
+ 'n_estimators': 100</t>
+  </si>
+  <si>
+    <t>class_weight='balanced', n_estimators=800, learning_rate=0.01, max_depth=8, min_child_samples=400, num_leaves=24</t>
+  </si>
+  <si>
+    <t>class_weight='balanced', n_estimators=900, learning_rate=0.01, max_depth=8, min_child_samples=400, num_leaves=24</t>
+  </si>
+  <si>
+    <t>class_weight='balanced', n_estimators=1000, learning_rate=0.01, max_depth=8, min_child_samples=400, num_leaves=24</t>
   </si>
 </sst>
 </file>
@@ -163,12 +209,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -184,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -194,6 +246,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -710,6 +766,9 @@
       <c r="B12" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
       <c r="I12" s="2">
         <v>0.39512999999999998</v>
       </c>
@@ -721,6 +780,9 @@
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
       <c r="I13" s="2">
         <v>0.38489000000000001</v>
       </c>
@@ -728,6 +790,98 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.38369999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.39945000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.34752</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.34945999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.35060000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.34689999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.34945999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.34660000000000002</v>
       </c>
     </row>
   </sheetData>
